--- a/StructureDefinition-BeModelMedicationRecordDispense.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordDispense.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$22</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="96">
   <si>
     <t>Path</t>
   </si>
@@ -143,48 +143,182 @@
     <t>Base</t>
   </si>
   <si>
+    <t>BeModelMedicationRecordDispense.identifier</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>The business identifier(s) for the medication dispense session</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordDispense.patient</t>
   </si>
   <si>
-    <t>1</t>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
+    <t>The person for which the medication is dispensed.</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.dispenser</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
+    <t>The dispenser, if known and relevant</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.dispenser.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner)
+</t>
+  </si>
+  <si>
+    <t>Reference to person that performed the recording or reporting</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.dispenser.organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>The date when the dispense ocurred (or not)</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.prescription</t>
+  </si>
+  <si>
+    <t>The information about a prescription related to the dispense</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.prescription.isprescribed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this dispense was performed against a prescription</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.prescription.prescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationRequest)
+</t>
+  </si>
+  <si>
+    <t>The prescription identification</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown  MedicationDispense Status Codes (Required)</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Why a dispense was not performed MedicationDispense Status Reason Codes (Example)</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordDispense.product</t>
   </si>
   <si>
-    <t xml:space="preserve">Medication
+    <t xml:space="preserve">Reference(Medication)
 </t>
   </si>
   <si>
-    <t>BeModelMedicationRecordDispense.dispenseDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
+    <t>The product that was dispensed - coded or not (e.g. for magistral preparations)</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.dispenseDetail</t>
+  </si>
+  <si>
+    <t>Each product that was dispensed</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.dispenseDetail.quantitydispensed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
-    <t>BeModelMedicationRecordDispense.dosageInstructions</t>
+    <t>The amound of product that was dispensed</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.dispenseDetail.dosageInstructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dosage
+</t>
+  </si>
+  <si>
+    <t>The instructions for use</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.dispenseDetail.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Additional information about the dispensed item</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.SubstitutionReason</t>
+  </si>
+  <si>
+    <t>Why was substitution made</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.type</t>
+  </si>
+  <si>
+    <t>Trial fill, partial fill, emergency fill, etc.</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.location</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>BeModelMedicationRecordDispense.location</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordDispense.prescriptionReference</t>
+    <t>BeModelMedicationRecordDispense.treatment</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordDispense.treatmentReference</t>
   </si>
 </sst>
 </file>
@@ -333,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -342,7 +476,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.97265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -352,7 +486,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="39.9140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="142.48828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -372,7 +506,7 @@
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="54.703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="65.97265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -598,7 +732,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>43</v>
@@ -615,8 +749,12 @@
       <c r="J3" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -669,7 +807,7 @@
         <v>42</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>43</v>
@@ -686,7 +824,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -709,10 +847,14 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -762,7 +904,7 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>43</v>
@@ -782,7 +924,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -805,10 +947,14 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -858,7 +1004,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>38</v>
@@ -878,7 +1024,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -886,10 +1032,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -901,10 +1047,14 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -954,13 +1104,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -974,7 +1124,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -982,7 +1132,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>43</v>
@@ -997,10 +1147,14 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1050,10 +1204,10 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>43</v>
@@ -1070,7 +1224,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1078,7 +1232,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>43</v>
@@ -1093,10 +1247,14 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1146,10 +1304,10 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>43</v>
@@ -1166,7 +1324,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1189,10 +1347,14 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1242,7 +1404,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1257,11 +1419,1303 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
+      <c r="A11" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ9">
+  <autoFilter ref="A1:AJ22">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1271,7 +2725,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI8">
+  <conditionalFormatting sqref="A2:AI21">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BeModelMedicationRecordDispense.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordDispense.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$21</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="94">
   <si>
     <t>Path</t>
   </si>
@@ -236,7 +236,7 @@
 </t>
   </si>
   <si>
-    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown  MedicationDispense Status Codes (Required)</t>
+    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown  MedicationDispense Status Codes (Required)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.statusReason</t>
@@ -246,36 +246,30 @@
 </t>
   </si>
   <si>
-    <t>Why a dispense was not performed MedicationDispense Status Reason Codes (Example)</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordDispense.product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Medication)
+    <t>Why a dispense was not performed MedicationDispense Status Reason Codes (Example)</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.product[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Medication)</t>
+  </si>
+  <si>
+    <t>The product that was dispensed - coded or not (e.g. for magistral preparations)</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.quantitydispensed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
-    <t>The product that was dispensed - coded or not (e.g. for magistral preparations)</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordDispense.dispenseDetail</t>
-  </si>
-  <si>
-    <t>Each product that was dispensed</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordDispense.dispenseDetail.quantitydispensed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
     <t>The amound of product that was dispensed</t>
   </si>
   <si>
-    <t>BeModelMedicationRecordDispense.dispenseDetail.dosageInstructions</t>
+    <t>BeModelMedicationRecordDispense.dosageInstruction</t>
   </si>
   <si>
     <t xml:space="preserve">Dosage
@@ -285,7 +279,7 @@
     <t>The instructions for use</t>
   </si>
   <si>
-    <t>BeModelMedicationRecordDispense.dispenseDetail.note</t>
+    <t>BeModelMedicationRecordDispense.note</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
@@ -310,7 +304,7 @@
     <t>BeModelMedicationRecordDispense.location</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">Reference(openEHR-location)
 </t>
   </si>
   <si>
@@ -467,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ22"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -476,7 +470,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.97265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -506,7 +500,7 @@
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="65.97265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="57.125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -935,7 +929,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -1010,7 +1004,7 @@
         <v>38</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
@@ -1935,7 +1929,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -1947,13 +1941,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2010,7 +2004,7 @@
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
@@ -2024,7 +2018,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2047,13 +2041,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2104,7 +2098,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
@@ -2124,7 +2118,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2135,7 +2129,7 @@
         <v>38</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>37</v>
@@ -2147,13 +2141,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2204,13 +2198,13 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>37</v>
@@ -2224,7 +2218,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2235,7 +2229,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>37</v>
@@ -2247,7 +2241,7 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>87</v>
@@ -2304,13 +2298,13 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>37</v>
@@ -2447,14 +2441,10 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K20" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>91</v>
-      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -2618,104 +2608,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ22">
+  <autoFilter ref="A1:AJ21">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2725,7 +2619,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI21">
+  <conditionalFormatting sqref="A2:AI20">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BeModelMedicationRecordDispense.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordDispense.xlsx
@@ -289,7 +289,7 @@
     <t>Additional information about the dispensed item</t>
   </si>
   <si>
-    <t>BeModelMedicationRecordDispense.SubstitutionReason</t>
+    <t>BeModelMedicationRecordDispense.substitutionReason</t>
   </si>
   <si>
     <t>Why was substitution made</t>

--- a/StructureDefinition-BeModelMedicationRecordDispense.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordDispense.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="97">
   <si>
     <t>Path</t>
   </si>
@@ -183,7 +183,7 @@
 </t>
   </si>
   <si>
-    <t>Reference to person that performed the recording or reporting</t>
+    <t>Reference to person that made the dispense</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.dispenser.organization</t>
@@ -193,6 +193,9 @@
 </t>
   </si>
   <si>
+    <t>Reference to the organzation from which the dispenser belongs</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordDispense.date</t>
   </si>
   <si>
@@ -236,7 +239,7 @@
 </t>
   </si>
   <si>
-    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown  MedicationDispense Status Codes (Required)</t>
+    <t>Status of the dispense</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.statusReason</t>
@@ -246,7 +249,7 @@
 </t>
   </si>
   <si>
-    <t>Why a dispense was not performed MedicationDispense Status Reason Codes (Example)</t>
+    <t>Reason for a dispense status</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.product[x]</t>
@@ -276,7 +279,7 @@
 </t>
   </si>
   <si>
-    <t>The instructions for use</t>
+    <t>The instructions for using the product</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.note</t>
@@ -286,7 +289,7 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the dispensed item</t>
+    <t>Additional information about the dispensed product</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.substitutionReason</t>
@@ -298,7 +301,7 @@
     <t>BeModelMedicationRecordDispense.type</t>
   </si>
   <si>
-    <t>Trial fill, partial fill, emergency fill, etc.</t>
+    <t>Type of dispense</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.location</t>
@@ -308,11 +311,17 @@
 </t>
   </si>
   <si>
+    <t>Location where the dispense was made</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordDispense.treatment</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
+  </si>
+  <si>
+    <t>Link to the 'parent' treatment - i.e the treatment that this order is derived from, or contriburing to</t>
   </si>
 </sst>
 </file>
@@ -480,7 +489,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="142.48828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.15234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1144,10 +1153,10 @@
         <v>56</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1218,7 +1227,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1241,13 +1250,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1298,7 +1307,7 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
@@ -1318,7 +1327,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1344,10 +1353,10 @@
         <v>50</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1398,7 +1407,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1418,7 +1427,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1441,13 +1450,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1498,7 +1507,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1518,7 +1527,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1541,13 +1550,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1598,7 +1607,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1618,7 +1627,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1641,13 +1650,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1698,7 +1707,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -1718,7 +1727,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1741,13 +1750,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1798,7 +1807,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1818,7 +1827,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1841,13 +1850,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1898,7 +1907,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -1918,7 +1927,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1941,13 +1950,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1998,7 +2007,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
@@ -2018,7 +2027,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2041,13 +2050,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2098,7 +2107,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
@@ -2118,7 +2127,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2141,13 +2150,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2198,7 +2207,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2218,7 +2227,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2241,13 +2250,13 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2298,7 +2307,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
@@ -2318,7 +2327,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2341,13 +2350,13 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2398,7 +2407,7 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
@@ -2418,7 +2427,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2441,10 +2450,14 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -2494,7 +2507,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
@@ -2514,7 +2527,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2537,10 +2550,14 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -2590,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-BeModelMedicationRecordDispense.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordDispense.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="98">
   <si>
     <t>Path</t>
   </si>
@@ -183,7 +183,7 @@
 </t>
   </si>
   <si>
-    <t>Reference to person that made the dispense</t>
+    <t>The person that made the dispense</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.dispenser.organization</t>
@@ -193,7 +193,7 @@
 </t>
   </si>
   <si>
-    <t>Reference to the organzation from which the dispenser belongs</t>
+    <t>The organzation from which the dispenser belongs</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.date</t>
@@ -257,6 +257,9 @@
   <si>
     <t>CodeableConcept
 Reference(Medication)</t>
+  </si>
+  <si>
+    <t>The product that was dispensed</t>
   </si>
   <si>
     <t>The product that was dispensed - coded or not (e.g. for magistral preparations)</t>
@@ -1856,7 +1859,7 @@
         <v>77</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1927,7 +1930,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1950,13 +1953,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2007,7 +2010,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2050,13 +2053,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2107,7 +2110,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
@@ -2127,7 +2130,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2150,13 +2153,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2207,7 +2210,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2227,7 +2230,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2253,10 +2256,10 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2307,7 +2310,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
@@ -2327,7 +2330,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2353,10 +2356,10 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2407,7 +2410,7 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
@@ -2427,7 +2430,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2450,13 +2453,13 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2507,7 +2510,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
@@ -2527,7 +2530,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2550,13 +2553,13 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2607,7 +2610,7 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-BeModelMedicationRecordDispense.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordDispense.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$22</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="100">
   <si>
     <t>Path</t>
   </si>
@@ -317,7 +317,7 @@
     <t>Location where the dispense was made</t>
   </si>
   <si>
-    <t>BeModelMedicationRecordDispense.treatment</t>
+    <t>BeModelMedicationRecordDispense.treatmentPlan</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>Link to the 'parent' treatment - i.e the treatment that this order is derived from, or contriburing to</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.basedOn</t>
+  </si>
+  <si>
+    <t>link to the 'parent' treatmentLine - i.e the line that covers all of the same drug for a certain purpose</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -492,7 +498,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.15234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.9453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2628,8 +2634,108 @@
         <v>37</v>
       </c>
     </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ21">
+  <autoFilter ref="A1:AJ22">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2639,7 +2745,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI20">
+  <conditionalFormatting sqref="A2:AI21">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BeModelMedicationRecordDispense.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordDispense.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="101">
   <si>
     <t>Path</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Medication Record Dispense logical model</t>
+  </si>
+  <si>
+    <t>A model for representing a product dispense</t>
   </si>
   <si>
     <t>Base</t>
@@ -666,7 +669,9 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -716,7 +721,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -736,7 +741,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -747,7 +752,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>37</v>
@@ -759,13 +764,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -816,13 +821,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -836,7 +841,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -844,10 +849,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -859,13 +864,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -916,13 +921,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -936,7 +941,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -959,13 +964,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1016,7 +1021,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>38</v>
@@ -1036,7 +1041,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1044,10 +1049,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -1059,13 +1064,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1116,13 +1121,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1136,7 +1141,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1144,10 +1149,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -1159,13 +1164,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1216,13 +1221,13 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>37</v>
@@ -1236,7 +1241,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1244,10 +1249,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1259,13 +1264,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1316,13 +1321,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1336,7 +1341,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1347,7 +1352,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1359,13 +1364,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1416,13 +1421,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1436,7 +1441,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1447,7 +1452,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1459,13 +1464,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1516,13 +1521,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1536,7 +1541,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1547,7 +1552,7 @@
         <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1559,13 +1564,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1616,13 +1621,13 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
@@ -1636,7 +1641,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1644,10 +1649,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1659,13 +1664,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1716,13 +1721,13 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1736,7 +1741,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1759,13 +1764,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1816,7 +1821,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1836,7 +1841,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1844,10 +1849,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>37</v>
@@ -1859,13 +1864,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1916,13 +1921,13 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>37</v>
@@ -1936,7 +1941,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1947,7 +1952,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -1959,13 +1964,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2016,13 +2021,13 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
@@ -2036,7 +2041,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2047,7 +2052,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2059,13 +2064,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2116,13 +2121,13 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
@@ -2136,7 +2141,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2159,13 +2164,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2216,7 +2221,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2236,7 +2241,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2247,7 +2252,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>37</v>
@@ -2259,13 +2264,13 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2316,13 +2321,13 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>37</v>
@@ -2336,7 +2341,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2347,7 +2352,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>37</v>
@@ -2359,13 +2364,13 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2416,13 +2421,13 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>37</v>
@@ -2436,7 +2441,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2447,7 +2452,7 @@
         <v>38</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>37</v>
@@ -2459,13 +2464,13 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2516,13 +2521,13 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>37</v>
@@ -2536,7 +2541,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2547,7 +2552,7 @@
         <v>38</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>37</v>
@@ -2559,13 +2564,13 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2616,13 +2621,13 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>37</v>
@@ -2636,7 +2641,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2647,7 +2652,7 @@
         <v>38</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>37</v>
@@ -2659,13 +2664,13 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2716,13 +2721,13 @@
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>37</v>

--- a/StructureDefinition-BeModelMedicationRecordDispense.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordDispense.xlsx
@@ -137,7 +137,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>Medication Record Dispense logical model</t>
+    <t>[Logical Model] - Dispense</t>
   </si>
   <si>
     <t>A model for representing a product dispense</t>

--- a/StructureDefinition-BeModelMedicationRecordDispense.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordDispense.xlsx
@@ -140,7 +140,7 @@
     <t>[Logical Model] - Dispense</t>
   </si>
   <si>
-    <t>A model for representing a product dispense</t>
+    <t>A model for representing a product dispense.</t>
   </si>
   <si>
     <t>Base</t>

--- a/StructureDefinition-BeModelMedicationRecordDispense.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordDispense.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$21</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="95">
   <si>
     <t>Path</t>
   </si>
@@ -137,10 +137,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>[Logical Model] - Dispense</t>
-  </si>
-  <si>
-    <t>A model for representing a product dispense.</t>
+    <t>Medication Record Dispense logical model</t>
   </si>
   <si>
     <t>Base</t>
@@ -186,7 +183,7 @@
 </t>
   </si>
   <si>
-    <t>The person that made the dispense</t>
+    <t>Reference to person that performed the recording or reporting</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.dispenser.organization</t>
@@ -196,9 +193,6 @@
 </t>
   </si>
   <si>
-    <t>The organzation from which the dispenser belongs</t>
-  </si>
-  <si>
     <t>BeModelMedicationRecordDispense.date</t>
   </si>
   <si>
@@ -242,7 +236,7 @@
 </t>
   </si>
   <si>
-    <t>Status of the dispense</t>
+    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown  MedicationDispense Status Codes (Required)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.statusReason</t>
@@ -252,7 +246,7 @@
 </t>
   </si>
   <si>
-    <t>Reason for a dispense status</t>
+    <t>Why a dispense was not performed MedicationDispense Status Reason Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.product[x]</t>
@@ -262,9 +256,6 @@
 Reference(Medication)</t>
   </si>
   <si>
-    <t>The product that was dispensed</t>
-  </si>
-  <si>
     <t>The product that was dispensed - coded or not (e.g. for magistral preparations)</t>
   </si>
   <si>
@@ -285,7 +276,7 @@
 </t>
   </si>
   <si>
-    <t>The instructions for using the product</t>
+    <t>The instructions for use</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.note</t>
@@ -295,7 +286,7 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the dispensed product</t>
+    <t>Additional information about the dispensed item</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.substitutionReason</t>
@@ -307,7 +298,7 @@
     <t>BeModelMedicationRecordDispense.type</t>
   </si>
   <si>
-    <t>Type of dispense</t>
+    <t>Trial fill, partial fill, emergency fill, etc.</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.location</t>
@@ -317,23 +308,14 @@
 </t>
   </si>
   <si>
-    <t>Location where the dispense was made</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordDispense.treatmentPlan</t>
+    <t>Where the dispense was made</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.treatment</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
-  </si>
-  <si>
-    <t>Link to the 'parent' treatment - i.e the treatment that this order is derived from, or contriburing to</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordDispense.basedOn</t>
-  </si>
-  <si>
-    <t>link to the 'parent' treatmentLine - i.e the line that covers all of the same drug for a certain purpose</t>
   </si>
 </sst>
 </file>
@@ -482,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ22"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -501,7 +483,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.9453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="142.48828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -669,9 +651,7 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -721,7 +701,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -741,7 +721,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -752,25 +732,25 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="K3" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="L3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -821,13 +801,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -841,7 +821,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -849,10 +829,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -864,13 +844,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="K4" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="L4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -921,13 +901,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -941,7 +921,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -964,13 +944,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1021,7 +1001,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>38</v>
@@ -1041,7 +1021,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1049,10 +1029,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -1064,13 +1044,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1121,13 +1101,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1141,7 +1121,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1149,10 +1129,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -1164,13 +1144,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1221,13 +1201,13 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>37</v>
@@ -1241,7 +1221,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1249,10 +1229,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1264,13 +1244,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1321,13 +1301,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1341,7 +1321,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1352,7 +1332,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1364,13 +1344,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1421,13 +1401,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1441,7 +1421,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1452,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1464,13 +1444,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1521,13 +1501,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1541,7 +1521,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1552,7 +1532,7 @@
         <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1564,13 +1544,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1621,13 +1601,13 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
@@ -1641,7 +1621,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1649,10 +1629,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1664,13 +1644,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1721,13 +1701,13 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1741,7 +1721,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1764,13 +1744,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1821,7 +1801,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1841,7 +1821,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1849,10 +1829,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>37</v>
@@ -1864,13 +1844,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1921,13 +1901,13 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>37</v>
@@ -1941,7 +1921,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1952,7 +1932,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -1964,13 +1944,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2021,13 +2001,13 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
@@ -2041,7 +2021,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2052,7 +2032,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2064,13 +2044,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2121,13 +2101,13 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
@@ -2141,7 +2121,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2164,13 +2144,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2221,7 +2201,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2241,7 +2221,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2252,7 +2232,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>37</v>
@@ -2264,13 +2244,13 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2321,13 +2301,13 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>37</v>
@@ -2341,7 +2321,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2352,7 +2332,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>37</v>
@@ -2364,13 +2344,13 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2421,13 +2401,13 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>37</v>
@@ -2441,7 +2421,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2452,7 +2432,7 @@
         <v>38</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>37</v>
@@ -2464,13 +2444,13 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2521,13 +2501,13 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>37</v>
@@ -2541,7 +2521,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2552,7 +2532,7 @@
         <v>38</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>37</v>
@@ -2564,14 +2544,10 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -2621,13 +2597,13 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>37</v>
@@ -2636,111 +2612,11 @@
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ22">
+  <autoFilter ref="A1:AJ21">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2750,7 +2626,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI21">
+  <conditionalFormatting sqref="A2:AI20">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BeModelMedicationRecordDispense.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordDispense.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$22</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="101">
   <si>
     <t>Path</t>
   </si>
@@ -137,7 +137,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Medication Record Dispense logical model</t>
+    <t>[Logical Model] - Dispense</t>
+  </si>
+  <si>
+    <t>A model for representing a product dispense.</t>
   </si>
   <si>
     <t>Base</t>
@@ -183,7 +186,7 @@
 </t>
   </si>
   <si>
-    <t>Reference to person that performed the recording or reporting</t>
+    <t>The person that made the dispense</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.dispenser.organization</t>
@@ -193,6 +196,9 @@
 </t>
   </si>
   <si>
+    <t>The organzation from which the dispenser belongs</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordDispense.date</t>
   </si>
   <si>
@@ -236,7 +242,7 @@
 </t>
   </si>
   <si>
-    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown  MedicationDispense Status Codes (Required)</t>
+    <t>Status of the dispense</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.statusReason</t>
@@ -246,7 +252,7 @@
 </t>
   </si>
   <si>
-    <t>Why a dispense was not performed MedicationDispense Status Reason Codes (Example)</t>
+    <t>Reason for a dispense status</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.product[x]</t>
@@ -256,6 +262,9 @@
 Reference(Medication)</t>
   </si>
   <si>
+    <t>The product that was dispensed</t>
+  </si>
+  <si>
     <t>The product that was dispensed - coded or not (e.g. for magistral preparations)</t>
   </si>
   <si>
@@ -276,7 +285,7 @@
 </t>
   </si>
   <si>
-    <t>The instructions for use</t>
+    <t>The instructions for using the product</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.note</t>
@@ -286,7 +295,7 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the dispensed item</t>
+    <t>Additional information about the dispensed product</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.substitutionReason</t>
@@ -298,7 +307,7 @@
     <t>BeModelMedicationRecordDispense.type</t>
   </si>
   <si>
-    <t>Trial fill, partial fill, emergency fill, etc.</t>
+    <t>Type of dispense</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.location</t>
@@ -308,14 +317,23 @@
 </t>
   </si>
   <si>
-    <t>Where the dispense was made</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordDispense.treatment</t>
+    <t>Location where the dispense was made</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.treatmentPlan</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
+  </si>
+  <si>
+    <t>Link to the 'parent' treatment - i.e the treatment that this order is derived from, or contriburing to</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.basedOn</t>
+  </si>
+  <si>
+    <t>link to the 'parent' treatmentLine - i.e the line that covers all of the same drug for a certain purpose</t>
   </si>
 </sst>
 </file>
@@ -464,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -483,7 +501,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="142.48828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.9453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -651,7 +669,9 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -701,7 +721,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -721,7 +741,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -732,7 +752,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>37</v>
@@ -744,13 +764,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -801,13 +821,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -821,7 +841,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -829,10 +849,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -844,13 +864,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -901,13 +921,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -921,7 +941,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -944,13 +964,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1001,7 +1021,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>38</v>
@@ -1021,7 +1041,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1029,10 +1049,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -1044,13 +1064,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1101,13 +1121,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1121,7 +1141,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1129,10 +1149,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -1144,13 +1164,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1201,13 +1221,13 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>37</v>
@@ -1221,7 +1241,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1229,10 +1249,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1244,13 +1264,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1301,13 +1321,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1321,7 +1341,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1332,7 +1352,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1344,13 +1364,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1401,13 +1421,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1421,7 +1441,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1432,7 +1452,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1444,13 +1464,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1501,13 +1521,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1521,7 +1541,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1532,7 +1552,7 @@
         <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1544,13 +1564,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1601,13 +1621,13 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
@@ -1621,7 +1641,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1629,10 +1649,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1644,13 +1664,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1701,13 +1721,13 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1721,7 +1741,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1744,13 +1764,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1801,7 +1821,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1821,7 +1841,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1829,10 +1849,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>37</v>
@@ -1844,13 +1864,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1901,13 +1921,13 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>37</v>
@@ -1921,7 +1941,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1932,7 +1952,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -1944,13 +1964,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2001,13 +2021,13 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
@@ -2021,7 +2041,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2032,7 +2052,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2044,13 +2064,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2101,13 +2121,13 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
@@ -2121,7 +2141,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2144,13 +2164,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2201,7 +2221,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2221,7 +2241,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2232,7 +2252,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>37</v>
@@ -2244,13 +2264,13 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2301,13 +2321,13 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>37</v>
@@ -2321,7 +2341,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2332,7 +2352,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>37</v>
@@ -2344,13 +2364,13 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2401,13 +2421,13 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>37</v>
@@ -2421,7 +2441,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2432,7 +2452,7 @@
         <v>38</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>37</v>
@@ -2444,13 +2464,13 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2501,13 +2521,13 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>37</v>
@@ -2521,7 +2541,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2532,7 +2552,7 @@
         <v>38</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>37</v>
@@ -2544,10 +2564,14 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -2597,13 +2621,13 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>37</v>
@@ -2612,11 +2636,111 @@
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ21">
+  <autoFilter ref="A1:AJ22">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2626,7 +2750,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI20">
+  <conditionalFormatting sqref="A2:AI21">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
